--- a/Drohne/Drohnenprogramme Zeitaufwand.xlsx
+++ b/Drohne/Drohnenprogramme Zeitaufwand.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Arduino code</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Ausgangssituation</t>
+  </si>
+  <si>
+    <t>10ms</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,7 +401,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,15 +412,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -428,7 +437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -438,8 +447,14 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -450,7 +465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -458,12 +473,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>

--- a/Drohne/Drohnenprogramme Zeitaufwand.xlsx
+++ b/Drohne/Drohnenprogramme Zeitaufwand.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Arduino code</t>
   </si>
@@ -73,6 +73,72 @@
   </si>
   <si>
     <t>10ms</t>
+  </si>
+  <si>
+    <t>Delays entfernen</t>
+  </si>
+  <si>
+    <t>Optimierung 2</t>
+  </si>
+  <si>
+    <t>Delays Optimieren</t>
+  </si>
+  <si>
+    <t>1,9ms</t>
+  </si>
+  <si>
+    <t>2,1ms</t>
+  </si>
+  <si>
+    <t>86ms</t>
+  </si>
+  <si>
+    <t>87ms</t>
+  </si>
+  <si>
+    <t>90ms</t>
+  </si>
+  <si>
+    <t>200ms</t>
+  </si>
+  <si>
+    <t>Arduino Optimierungen</t>
+  </si>
+  <si>
+    <t>Voltage Reads</t>
+  </si>
+  <si>
+    <t>MPU Reads</t>
+  </si>
+  <si>
+    <t>Pressure Sensor Reads</t>
+  </si>
+  <si>
+    <t>Sensor Reads</t>
+  </si>
+  <si>
+    <t>34,2ms</t>
+  </si>
+  <si>
+    <t>36ms</t>
+  </si>
+  <si>
+    <t>Oversampling</t>
+  </si>
+  <si>
+    <t>52ms</t>
+  </si>
+  <si>
+    <t>13,2ms</t>
+  </si>
+  <si>
+    <t>Pressure min</t>
+  </si>
+  <si>
+    <t>MPU min (all Sensors)</t>
+  </si>
+  <si>
+    <t>Sensor Conv. Delay : 8ms</t>
   </si>
 </sst>
 </file>
@@ -390,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +467,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,79 +477,178 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Drohne/Drohnenprogramme Zeitaufwand.xlsx
+++ b/Drohne/Drohnenprogramme Zeitaufwand.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Arduino code</t>
   </si>
@@ -139,6 +139,42 @@
   </si>
   <si>
     <t>Sensor Conv. Delay : 8ms</t>
+  </si>
+  <si>
+    <t>ADS Bypass</t>
+  </si>
+  <si>
+    <t>1,6ms</t>
+  </si>
+  <si>
+    <t>0,5ms</t>
+  </si>
+  <si>
+    <t>1,0ms</t>
+  </si>
+  <si>
+    <t>0ms</t>
+  </si>
+  <si>
+    <t>Pressure weg</t>
+  </si>
+  <si>
+    <t>MPU Lesen</t>
+  </si>
+  <si>
+    <t>3ms</t>
+  </si>
+  <si>
+    <t>2,5ms</t>
+  </si>
+  <si>
+    <t>Sensoren Optimieren</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>ca. 6ms</t>
   </si>
 </sst>
 </file>
@@ -174,8 +210,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -456,18 +493,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,15 +518,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -503,7 +543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -519,8 +559,11 @@
       <c r="H4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -542,8 +585,11 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -553,21 +599,27 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -581,7 +633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -591,8 +643,14 @@
       <c r="D13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -602,8 +660,14 @@
       <c r="D14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -613,8 +677,14 @@
       <c r="D15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -624,8 +694,14 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -635,18 +711,27 @@
       <c r="D17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>39</v>
       </c>
